--- a/generated/spreadsheet/listed-building-consent-lbc.xlsx
+++ b/generated/spreadsheet/listed-building-consent-lbc.xlsx
@@ -1073,8 +1073,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1206,8 +1205,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1475,8 +1473,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details for the applicant or applicants, including email and phone numbers
-</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1608,9 +1605,7 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details about the applicants for the planning application,
-including their personal information and contact details
-</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1818,8 +1813,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identifies the national requirement types that apply to this application type
-</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -1853,8 +1847,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about community consultation activities carried out in relation to the planning application
-</t>
+          <t>What community consultation activities have taken place as part of the application</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1914,9 +1907,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any conflicts of interest between the applicant/agent and the planning authority,
-including relationships with staff or elected members
-</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -2002,8 +1993,7 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Declaration by the applicant or agent confirming the accuracy of the information provided
-</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -2089,8 +2079,7 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Permission or prior approval that may be required to demolish a building, specifically for listed building consent applications
-</t>
+          <t>Details of any demolition that needs to take place as part of the development proposal.</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -2332,8 +2321,7 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details about certificate of immunity applications and their results
-</t>
+          <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -2393,8 +2381,7 @@
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about proposed alterations to listed buildings, including types of alterations and supporting documentation
-</t>
+          <t>Details of any changes being made to a listed building as part of development works</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -2514,8 +2501,7 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the grade of listed buildings affected by the planning application
-</t>
+          <t>The grade of any listed building affected by the proposed development.</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -2601,8 +2587,7 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the materials used in the development, including both existing and proposed materials
-</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -2846,8 +2831,7 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about ownership of the site and/or property for development, including agricultural tenants and notification requirements.
-</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -3271,8 +3255,7 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any pre-application advice sought from the planning authority
-</t>
+          <t>Details of pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -3410,8 +3393,7 @@
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about what development, works or change of use is being proposed
-</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -3549,8 +3531,7 @@
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about related applications, previous proposals or demolitions for the site, including whether such proposals exist and details of any related applications
-</t>
+          <t>Details of any other development proposals made for the site</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -3674,9 +3655,7 @@
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the location and extent of the site where development 
-or works are proposed
-</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -3954,8 +3933,7 @@
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details needed to support a site visit by the planning authority
-</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">

--- a/generated/spreadsheet/listed-building-consent-lbc.xlsx
+++ b/generated/spreadsheet/listed-building-consent-lbc.xlsx
@@ -437,7 +437,7 @@
   <cols>
     <col width="58" customWidth="1" min="1" max="1"/>
     <col width="72" customWidth="1" min="2" max="2"/>
-    <col width="34" customWidth="1" min="3" max="3"/>
+    <col width="43" customWidth="1" min="3" max="3"/>
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="72" customWidth="1" min="6" max="6"/>
@@ -2742,19 +2742,19 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Additional material information</t>
+          <t>Providing additional material information</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>Additional context or details about the materials to be used in the development</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">

--- a/generated/spreadsheet/listed-building-consent-lbc.xlsx
+++ b/generated/spreadsheet/listed-building-consent-lbc.xlsx
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice received from the planning authority</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">

--- a/generated/spreadsheet/listed-building-consent-lbc.xlsx
+++ b/generated/spreadsheet/listed-building-consent-lbc.xlsx
@@ -697,7 +697,7 @@
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>The name or title of the document</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">

--- a/generated/spreadsheet/listed-building-consent-lbc.xlsx
+++ b/generated/spreadsheet/listed-building-consent-lbc.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,9 +440,10 @@
     <col width="43" customWidth="1" min="3" max="3"/>
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="72" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="72" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -473,15 +474,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>field4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>requirement</t>
         </is>
@@ -500,22 +506,27 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -526,22 +537,27 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>Application types[]</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>A list of planning application types that define the nature of the planning application</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -552,22 +568,27 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>Application sub type</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Further classification of the application type for specific variations within the main application type</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -578,22 +599,27 @@
       <c r="B5" s="2" t="n"/>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>Planning authority</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -604,22 +630,27 @@
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>Submission date</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Date the application is submitted in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -630,22 +661,27 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>Modules[]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>List of required modules for this application that can be used to validate the application</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -656,26 +692,31 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>A reference for the document</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -686,26 +727,31 @@
       <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>The name or title of the document</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -716,26 +762,31 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>Brief description of what the document contains</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -746,26 +797,31 @@
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Document types[]</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>List of codelist references that the document covers</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -776,30 +832,35 @@
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>A URL pointing to the stored file</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -810,30 +871,35 @@
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>Base64</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -844,30 +910,35 @@
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>Filename</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Name of the file being uploaded</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -878,30 +949,35 @@
       <c r="B15" s="2" t="n"/>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>MIME type</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -912,30 +988,35 @@
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Checksum</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -946,30 +1027,35 @@
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>File size</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -980,26 +1066,31 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>The total amount due for the application fee</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1010,26 +1101,31 @@
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Amount paid</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>The amount paid towards the application fee</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1040,26 +1136,31 @@
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Transactions[]</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1083,17 +1184,18 @@
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>A reference to an agent object</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1113,17 +1215,18 @@
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1147,17 +1250,18 @@
           <t>Phone number</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1181,17 +1285,18 @@
           <t>Contact priority</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>The priority of a number</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1219,17 +1324,18 @@
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1253,17 +1359,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1287,17 +1394,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1321,17 +1429,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1355,17 +1464,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1389,17 +1499,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1419,17 +1530,18 @@
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1449,17 +1561,18 @@
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="H32" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1483,17 +1596,18 @@
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1513,17 +1627,18 @@
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1547,17 +1662,18 @@
           <t>Phone number</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1581,17 +1697,18 @@
           <t>Contact priority</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>The priority of a number</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
+      <c r="H36" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr">
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1619,17 +1736,18 @@
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1653,17 +1771,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1687,17 +1806,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1721,17 +1841,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1755,17 +1876,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1789,17 +1911,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1823,17 +1946,18 @@
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t>List of the document types required for the given application type</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1857,17 +1981,18 @@
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>Whether community consultation has been carried out</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr">
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1883,17 +2008,18 @@
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr">
         <is>
           <t>Provide details of the community consultation</t>
         </is>
       </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1917,17 +2043,18 @@
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="H46" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr">
+      <c r="I46" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1943,17 +2070,18 @@
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1969,17 +2097,18 @@
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr">
         <is>
           <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2003,17 +2132,18 @@
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
         <is>
           <t>A name of a person</t>
         </is>
       </c>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2029,17 +2159,18 @@
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="H50" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr">
+      <c r="I50" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2055,17 +2186,18 @@
       </c>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>The date the declaration was made</t>
         </is>
       </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2089,17 +2221,18 @@
       </c>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>Does the proposal include partial or total demolition of a listed building?</t>
         </is>
       </c>
-      <c r="G52" s="2" t="inlineStr">
+      <c r="H52" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H52" s="2" t="inlineStr">
+      <c r="I52" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2115,17 +2248,18 @@
       </c>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>Indicating whether the proposal involves total demolition of a listed building</t>
         </is>
       </c>
-      <c r="G53" s="2" t="inlineStr">
+      <c r="H53" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H53" s="2" t="inlineStr">
+      <c r="I53" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2141,17 +2275,18 @@
       </c>
       <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
         <is>
           <t>True or False indicating whether the proposal involves demolition of a building in the curtilage of a listed building</t>
         </is>
       </c>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="H54" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr">
+      <c r="I54" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2167,17 +2302,18 @@
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
         <is>
           <t>True or False indicating whether the proposal involves partial demolition of a listed building</t>
         </is>
       </c>
-      <c r="G55" s="2" t="inlineStr">
+      <c r="H55" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H55" s="2" t="inlineStr">
+      <c r="I55" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2193,17 +2329,18 @@
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>Volume of listed building in cubic metres</t>
         </is>
       </c>
-      <c r="G56" s="2" t="inlineStr">
+      <c r="H56" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H56" s="2" t="inlineStr">
+      <c r="I56" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2219,17 +2356,18 @@
       </c>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
         <is>
           <t>Volume of part to be demolished in cubic metres</t>
         </is>
       </c>
-      <c r="G57" s="2" t="inlineStr">
+      <c r="H57" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H57" s="2" t="inlineStr">
+      <c r="I57" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2245,17 +2383,18 @@
       </c>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
         </is>
       </c>
-      <c r="G58" s="2" t="inlineStr">
+      <c r="H58" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H58" s="2" t="inlineStr">
+      <c r="I58" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2271,17 +2410,18 @@
       </c>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
         <is>
           <t>Description of the building or part you are proposing to demolish</t>
         </is>
       </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2297,17 +2437,18 @@
       </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
         <is>
           <t>Reason for demolition</t>
         </is>
       </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2331,17 +2472,18 @@
       </c>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr">
         <is>
           <t>Has a certificate of immunity been sought</t>
         </is>
       </c>
-      <c r="G61" s="2" t="inlineStr">
+      <c r="H61" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H61" s="2" t="inlineStr">
+      <c r="I61" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2357,17 +2499,18 @@
       </c>
       <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
         <is>
           <t>Provide the result of the application for a certificate of immunity</t>
         </is>
       </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2391,17 +2534,18 @@
       </c>
       <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr">
         <is>
           <t>True or False if proposal includes alterations to a listed building</t>
         </is>
       </c>
-      <c r="G63" s="2" t="inlineStr">
+      <c r="H63" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H63" s="2" t="inlineStr">
+      <c r="I63" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2417,17 +2561,18 @@
       </c>
       <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr">
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr">
         <is>
           <t>Select from a list of listed building alteration types, select all that apply</t>
         </is>
       </c>
-      <c r="G64" s="2" t="inlineStr">
+      <c r="H64" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H64" s="2" t="inlineStr">
+      <c r="I64" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2447,17 +2592,18 @@
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr">
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2477,17 +2623,18 @@
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr">
         <is>
           <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2511,17 +2658,18 @@
       </c>
       <c r="D67" s="2" t="inlineStr"/>
       <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr">
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr">
         <is>
           <t>The grade of the listed building, selected from the listed-building-grade codelist or "don't know"</t>
         </is>
       </c>
-      <c r="G67" s="2" t="inlineStr">
+      <c r="H67" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H67" s="2" t="inlineStr">
+      <c r="I67" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2537,17 +2685,18 @@
       </c>
       <c r="D68" s="2" t="inlineStr"/>
       <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr">
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr">
         <is>
           <t>Listed building reference for cross-referencing with listed building records</t>
         </is>
       </c>
-      <c r="G68" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2563,17 +2712,18 @@
       </c>
       <c r="D69" s="2" t="inlineStr"/>
       <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr">
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr">
         <is>
           <t>Source of the listed building grade information</t>
         </is>
       </c>
-      <c r="G69" s="2" t="inlineStr">
+      <c r="H69" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H69" s="2" t="inlineStr">
+      <c r="I69" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2601,17 +2751,18 @@
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr">
         <is>
           <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
-      <c r="G70" s="2" t="inlineStr">
+      <c r="H70" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H70" s="2" t="inlineStr">
+      <c r="I70" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2631,17 +2782,18 @@
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr">
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr">
         <is>
           <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2661,17 +2813,18 @@
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr">
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr">
         <is>
           <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2691,17 +2844,18 @@
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
-      <c r="F73" s="2" t="inlineStr">
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr">
         <is>
           <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
-      <c r="G73" s="2" t="inlineStr">
+      <c r="H73" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H73" s="2" t="inlineStr">
+      <c r="I73" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2721,17 +2875,18 @@
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
-      <c r="F74" s="2" t="inlineStr">
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr">
         <is>
           <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
-      <c r="G74" s="2" t="inlineStr">
+      <c r="H74" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H74" s="2" t="inlineStr">
+      <c r="I74" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2747,17 +2902,18 @@
       </c>
       <c r="D75" s="2" t="inlineStr"/>
       <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr">
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr">
         <is>
           <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
-      <c r="G75" s="2" t="inlineStr">
+      <c r="H75" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H75" s="2" t="inlineStr">
+      <c r="I75" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2777,17 +2933,18 @@
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
-      <c r="F76" s="2" t="inlineStr">
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G76" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2807,17 +2964,18 @@
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
-      <c r="F77" s="2" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr"/>
+      <c r="G77" s="2" t="inlineStr">
         <is>
           <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
-      <c r="G77" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2841,17 +2999,18 @@
       </c>
       <c r="D78" s="2" t="inlineStr"/>
       <c r="E78" s="2" t="inlineStr"/>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr">
         <is>
           <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
-      <c r="G78" s="2" t="inlineStr">
+      <c r="H78" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H78" s="2" t="inlineStr">
+      <c r="I78" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2875,17 +3034,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr"/>
+      <c r="G79" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G79" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2909,17 +3069,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2943,17 +3104,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr"/>
+      <c r="G81" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G81" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2977,17 +3139,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3011,17 +3174,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3041,17 +3205,18 @@
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
-      <c r="F84" s="2" t="inlineStr">
+      <c r="F84" s="2" t="inlineStr"/>
+      <c r="G84" s="2" t="inlineStr">
         <is>
           <t>Date when notice was served</t>
         </is>
       </c>
-      <c r="G84" s="2" t="inlineStr">
+      <c r="H84" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H84" s="2" t="inlineStr">
+      <c r="I84" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3067,17 +3232,18 @@
       </c>
       <c r="D85" s="2" t="inlineStr"/>
       <c r="E85" s="2" t="inlineStr"/>
-      <c r="F85" s="2" t="inlineStr">
+      <c r="F85" s="2" t="inlineStr"/>
+      <c r="G85" s="2" t="inlineStr">
         <is>
           <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
-      <c r="G85" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3097,17 +3263,18 @@
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr"/>
-      <c r="F86" s="2" t="inlineStr">
+      <c r="F86" s="2" t="inlineStr"/>
+      <c r="G86" s="2" t="inlineStr">
         <is>
           <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3127,17 +3294,18 @@
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr"/>
-      <c r="F87" s="2" t="inlineStr">
+      <c r="F87" s="2" t="inlineStr"/>
+      <c r="G87" s="2" t="inlineStr">
         <is>
           <t>Date when the notice was published</t>
         </is>
       </c>
-      <c r="G87" s="2" t="inlineStr">
+      <c r="H87" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H87" s="2" t="inlineStr">
+      <c r="I87" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3153,17 +3321,18 @@
       </c>
       <c r="D88" s="2" t="inlineStr"/>
       <c r="E88" s="2" t="inlineStr"/>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr"/>
+      <c r="G88" s="2" t="inlineStr">
         <is>
           <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
-      <c r="G88" s="2" t="inlineStr">
+      <c r="H88" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H88" s="2" t="inlineStr">
+      <c r="I88" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3179,17 +3348,18 @@
       </c>
       <c r="D89" s="2" t="inlineStr"/>
       <c r="E89" s="2" t="inlineStr"/>
-      <c r="F89" s="2" t="inlineStr">
+      <c r="F89" s="2" t="inlineStr"/>
+      <c r="G89" s="2" t="inlineStr">
         <is>
           <t>Digital signature of the applicant</t>
         </is>
       </c>
-      <c r="G89" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3205,17 +3375,18 @@
       </c>
       <c r="D90" s="2" t="inlineStr"/>
       <c r="E90" s="2" t="inlineStr"/>
-      <c r="F90" s="2" t="inlineStr">
+      <c r="F90" s="2" t="inlineStr"/>
+      <c r="G90" s="2" t="inlineStr">
         <is>
           <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
-      <c r="G90" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3231,17 +3402,18 @@
       </c>
       <c r="D91" s="2" t="inlineStr"/>
       <c r="E91" s="2" t="inlineStr"/>
-      <c r="F91" s="2" t="inlineStr">
+      <c r="F91" s="2" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr">
         <is>
           <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
-      <c r="G91" s="2" t="inlineStr">
+      <c r="H91" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H91" s="2" t="inlineStr">
+      <c r="I91" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3265,17 +3437,18 @@
       </c>
       <c r="D92" s="2" t="inlineStr"/>
       <c r="E92" s="2" t="inlineStr"/>
-      <c r="F92" s="2" t="inlineStr">
+      <c r="F92" s="2" t="inlineStr"/>
+      <c r="G92" s="2" t="inlineStr">
         <is>
           <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
-      <c r="G92" s="2" t="inlineStr">
+      <c r="H92" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H92" s="2" t="inlineStr">
+      <c r="I92" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3291,17 +3464,18 @@
       </c>
       <c r="D93" s="2" t="inlineStr"/>
       <c r="E93" s="2" t="inlineStr"/>
-      <c r="F93" s="2" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr">
         <is>
           <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3317,17 +3491,18 @@
       </c>
       <c r="D94" s="2" t="inlineStr"/>
       <c r="E94" s="2" t="inlineStr"/>
-      <c r="F94" s="2" t="inlineStr">
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3343,17 +3518,18 @@
       </c>
       <c r="D95" s="2" t="inlineStr"/>
       <c r="E95" s="2" t="inlineStr"/>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr"/>
+      <c r="G95" s="2" t="inlineStr">
         <is>
           <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3369,17 +3545,18 @@
       </c>
       <c r="D96" s="2" t="inlineStr"/>
       <c r="E96" s="2" t="inlineStr"/>
-      <c r="F96" s="2" t="inlineStr">
+      <c r="F96" s="2" t="inlineStr"/>
+      <c r="G96" s="2" t="inlineStr">
         <is>
           <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3403,17 +3580,18 @@
       </c>
       <c r="D97" s="2" t="inlineStr"/>
       <c r="E97" s="2" t="inlineStr"/>
-      <c r="F97" s="2" t="inlineStr">
+      <c r="F97" s="2" t="inlineStr"/>
+      <c r="G97" s="2" t="inlineStr">
         <is>
           <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
-      <c r="G97" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3429,17 +3607,18 @@
       </c>
       <c r="D98" s="2" t="inlineStr"/>
       <c r="E98" s="2" t="inlineStr"/>
-      <c r="F98" s="2" t="inlineStr">
+      <c r="F98" s="2" t="inlineStr"/>
+      <c r="G98" s="2" t="inlineStr">
         <is>
           <t>Has any work on the proposal already been started</t>
         </is>
       </c>
-      <c r="G98" s="2" t="inlineStr">
+      <c r="H98" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H98" s="2" t="inlineStr">
+      <c r="I98" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3455,17 +3634,18 @@
       </c>
       <c r="D99" s="2" t="inlineStr"/>
       <c r="E99" s="2" t="inlineStr"/>
-      <c r="F99" s="2" t="inlineStr">
+      <c r="F99" s="2" t="inlineStr"/>
+      <c r="G99" s="2" t="inlineStr">
         <is>
           <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G99" s="2" t="inlineStr">
+      <c r="H99" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H99" s="2" t="inlineStr">
+      <c r="I99" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3481,17 +3661,18 @@
       </c>
       <c r="D100" s="2" t="inlineStr"/>
       <c r="E100" s="2" t="inlineStr"/>
-      <c r="F100" s="2" t="inlineStr">
+      <c r="F100" s="2" t="inlineStr"/>
+      <c r="G100" s="2" t="inlineStr">
         <is>
           <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
-      <c r="G100" s="2" t="inlineStr">
+      <c r="H100" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H100" s="2" t="inlineStr">
+      <c r="I100" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3507,17 +3688,18 @@
       </c>
       <c r="D101" s="2" t="inlineStr"/>
       <c r="E101" s="2" t="inlineStr"/>
-      <c r="F101" s="2" t="inlineStr">
+      <c r="F101" s="2" t="inlineStr"/>
+      <c r="G101" s="2" t="inlineStr">
         <is>
           <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G101" s="2" t="inlineStr">
+      <c r="H101" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H101" s="2" t="inlineStr">
+      <c r="I101" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3541,17 +3723,18 @@
       </c>
       <c r="D102" s="2" t="inlineStr"/>
       <c r="E102" s="2" t="inlineStr"/>
-      <c r="F102" s="2" t="inlineStr">
+      <c r="F102" s="2" t="inlineStr"/>
+      <c r="G102" s="2" t="inlineStr">
         <is>
           <t>Are there any related applications, previous proposals or demolitions for the site</t>
         </is>
       </c>
-      <c r="G102" s="2" t="inlineStr">
+      <c r="H102" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H102" s="2" t="inlineStr">
+      <c r="I102" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3571,17 +3754,18 @@
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
-      <c r="F103" s="2" t="inlineStr">
+      <c r="F103" s="2" t="inlineStr"/>
+      <c r="G103" s="2" t="inlineStr">
         <is>
           <t>The reference for the related application</t>
         </is>
       </c>
-      <c r="G103" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H103" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3601,17 +3785,18 @@
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
-      <c r="F104" s="2" t="inlineStr">
+      <c r="F104" s="2" t="inlineStr"/>
+      <c r="G104" s="2" t="inlineStr">
         <is>
           <t>A description of the related application</t>
         </is>
       </c>
-      <c r="G104" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3631,17 +3816,18 @@
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr">
         <is>
           <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G105" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3669,17 +3855,18 @@
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
-      <c r="F106" s="2" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr"/>
+      <c r="G106" s="2" t="inlineStr">
         <is>
           <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
-      <c r="G106" s="2" t="inlineStr">
+      <c r="H106" s="2" t="inlineStr">
         <is>
           <t>wkt</t>
         </is>
       </c>
-      <c r="H106" s="2" t="inlineStr">
+      <c r="I106" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3699,17 +3886,18 @@
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
-      <c r="F107" s="2" t="inlineStr">
+      <c r="F107" s="2" t="inlineStr"/>
+      <c r="G107" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G107" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3729,17 +3917,18 @@
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
-      <c r="F108" s="2" t="inlineStr">
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G108" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3759,17 +3948,18 @@
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
-      <c r="F109" s="2" t="inlineStr">
+      <c r="F109" s="2" t="inlineStr"/>
+      <c r="G109" s="2" t="inlineStr">
         <is>
           <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
-      <c r="G109" s="2" t="inlineStr">
+      <c r="H109" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H109" s="2" t="inlineStr">
+      <c r="I109" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3789,17 +3979,18 @@
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr"/>
+      <c r="G110" s="2" t="inlineStr">
         <is>
           <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
-      <c r="G110" s="2" t="inlineStr">
+      <c r="H110" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H110" s="2" t="inlineStr">
+      <c r="I110" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3819,17 +4010,18 @@
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
-      <c r="F111" s="2" t="inlineStr">
+      <c r="F111" s="2" t="inlineStr"/>
+      <c r="G111" s="2" t="inlineStr">
         <is>
           <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
-      <c r="G111" s="2" t="inlineStr">
+      <c r="H111" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H111" s="2" t="inlineStr">
+      <c r="I111" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3849,17 +4041,18 @@
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
-      <c r="F112" s="2" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr"/>
+      <c r="G112" s="2" t="inlineStr">
         <is>
           <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
-      <c r="G112" s="2" t="inlineStr">
+      <c r="H112" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H112" s="2" t="inlineStr">
+      <c r="I112" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3879,17 +4072,18 @@
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
-      <c r="F113" s="2" t="inlineStr">
+      <c r="F113" s="2" t="inlineStr"/>
+      <c r="G113" s="2" t="inlineStr">
         <is>
           <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
-      <c r="G113" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3909,17 +4103,18 @@
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
-      <c r="F114" s="2" t="inlineStr">
+      <c r="F114" s="2" t="inlineStr"/>
+      <c r="G114" s="2" t="inlineStr">
         <is>
           <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
-      <c r="G114" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -3943,17 +4138,18 @@
       </c>
       <c r="D115" s="2" t="inlineStr"/>
       <c r="E115" s="2" t="inlineStr"/>
-      <c r="F115" s="2" t="inlineStr">
+      <c r="F115" s="2" t="inlineStr"/>
+      <c r="G115" s="2" t="inlineStr">
         <is>
           <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
-      <c r="G115" s="2" t="inlineStr">
+      <c r="H115" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H115" s="2" t="inlineStr">
+      <c r="I115" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3969,17 +4165,18 @@
       </c>
       <c r="D116" s="2" t="inlineStr"/>
       <c r="E116" s="2" t="inlineStr"/>
-      <c r="F116" s="2" t="inlineStr">
+      <c r="F116" s="2" t="inlineStr"/>
+      <c r="G116" s="2" t="inlineStr">
         <is>
           <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
-      <c r="G116" s="2" t="inlineStr">
+      <c r="H116" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H116" s="2" t="inlineStr">
+      <c r="I116" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -3995,17 +4192,18 @@
       </c>
       <c r="D117" s="2" t="inlineStr"/>
       <c r="E117" s="2" t="inlineStr"/>
-      <c r="F117" s="2" t="inlineStr">
+      <c r="F117" s="2" t="inlineStr"/>
+      <c r="G117" s="2" t="inlineStr">
         <is>
           <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
-      <c r="G117" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H117" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -4025,17 +4223,18 @@
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
-      <c r="F118" s="2" t="inlineStr">
+      <c r="F118" s="2" t="inlineStr"/>
+      <c r="G118" s="2" t="inlineStr">
         <is>
           <t>The complete name of a person</t>
         </is>
       </c>
-      <c r="G118" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4055,17 +4254,18 @@
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
-      <c r="F119" s="2" t="inlineStr">
+      <c r="F119" s="2" t="inlineStr"/>
+      <c r="G119" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G119" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4085,17 +4285,18 @@
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
-      <c r="F120" s="2" t="inlineStr">
+      <c r="F120" s="2" t="inlineStr"/>
+      <c r="G120" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G120" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>

--- a/generated/spreadsheet/listed-building-consent-lbc.xlsx
+++ b/generated/spreadsheet/listed-building-consent-lbc.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">

--- a/generated/spreadsheet/listed-building-consent-lbc.xlsx
+++ b/generated/spreadsheet/listed-building-consent-lbc.xlsx
@@ -611,7 +611,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">

--- a/generated/spreadsheet/listed-building-consent-lbc.xlsx
+++ b/generated/spreadsheet/listed-building-consent-lbc.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,12 +847,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1032,22 +1032,18 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1057,7 +1053,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1076,13 +1072,13 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1111,48 +1107,48 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1162,32 +1158,28 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1211,14 +1203,18 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1247,18 +1243,18 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1268,51 +1264,47 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1320,14 +1312,18 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1337,7 +1333,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1356,13 +1352,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1372,7 +1368,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1391,13 +1387,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1426,13 +1422,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1461,13 +1457,13 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1477,7 +1473,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1491,18 +1487,14 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1526,19 +1518,19 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -1548,58 +1540,58 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1623,14 +1615,18 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1640,7 +1636,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1659,18 +1655,18 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -1680,51 +1676,47 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1732,14 +1724,18 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1749,7 +1745,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1768,13 +1764,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1784,7 +1780,7 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1803,13 +1799,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1838,13 +1834,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1873,13 +1869,13 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1889,32 +1885,32 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -1924,24 +1920,24 @@
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Community consultation</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>What community consultation activities have taken place as part of the application</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Have consulted</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1949,12 +1945,12 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Whether community consultation has been carried out</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -1964,19 +1960,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Community consultation</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>What community consultation activities have taken place as part of the application</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Have consulted</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1984,26 +1972,34 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Whether community consultation has been carried out</t>
+          <t>Provide details of the community consultation</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -2011,34 +2007,26 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Provide details of the community consultation</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2046,17 +2034,17 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2053,7 @@
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2073,7 +2061,7 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -2088,11 +2076,19 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2100,7 +2096,7 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -2110,24 +2106,16 @@
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2135,12 +2123,12 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2154,7 +2142,7 @@
       <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2162,12 +2150,12 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
@@ -2177,11 +2165,19 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Demolition</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Details of any demolition that needs to take place as part of the development proposal.</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Is propsing demolition</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2189,12 +2185,12 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Does the proposal include partial or total demolition of a listed building?</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
@@ -2204,19 +2200,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Demolition</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>Details of any demolition that needs to take place as part of the development proposal.</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Is propsing demolition</t>
+          <t>Is total demolition</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2224,7 +2212,7 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include partial or total demolition of a listed building?</t>
+          <t>Indicating whether the proposal involves total demolition of a listed building</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
@@ -2234,7 +2222,7 @@
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2231,7 @@
       <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Is total demolition</t>
+          <t>Demolition building in curtilage</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2251,7 +2239,7 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Indicating whether the proposal involves total demolition of a listed building</t>
+          <t>True or False indicating whether the proposal involves demolition of a building in the curtilage of a listed building</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -2270,7 +2258,7 @@
       <c r="B54" s="2" t="n"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Demolition building in curtilage</t>
+          <t>Demolition part</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -2278,7 +2266,7 @@
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the proposal involves demolition of a building in the curtilage of a listed building</t>
+          <t>True or False indicating whether the proposal involves partial demolition of a listed building</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -2297,7 +2285,7 @@
       <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Demolition part</t>
+          <t>Listed building volume</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
@@ -2305,12 +2293,12 @@
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the proposal involves partial demolition of a listed building</t>
+          <t>Volume of listed building in cubic metres</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
@@ -2324,7 +2312,7 @@
       <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Listed building volume</t>
+          <t>Demolition volume</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
@@ -2332,7 +2320,7 @@
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Volume of listed building in cubic metres</t>
+          <t>Volume of part to be demolished in cubic metres</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2351,7 +2339,7 @@
       <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Demolition volume</t>
+          <t>Part built date</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
@@ -2359,12 +2347,12 @@
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Volume of part to be demolished in cubic metres</t>
+          <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2378,7 +2366,7 @@
       <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Part built date</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
@@ -2386,17 +2374,17 @@
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
+          <t>Description of the building or part you are proposing to demolish</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2393,7 @@
       <c r="B59" s="2" t="n"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
@@ -2413,7 +2401,7 @@
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Description of the building or part you are proposing to demolish</t>
+          <t>Reason for demolition</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -2428,11 +2416,19 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Immunity from listing</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Certificate of immunity sought</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
@@ -2440,12 +2436,12 @@
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Reason for demolition</t>
+          <t>Has a certificate of immunity been sought</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
@@ -2455,19 +2451,11 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Immunity from listing</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
-        </is>
-      </c>
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Certificate of immunity sought</t>
+          <t>Application result</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
@@ -2475,26 +2463,34 @@
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Has a certificate of immunity been sought</t>
+          <t>Provide the result of the application for a certificate of immunity</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Listed building alterations</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes being made to a listed building as part of development works</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Application result</t>
+          <t>Proposal alter listed building</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
@@ -2502,34 +2498,26 @@
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Provide the result of the application for a certificate of immunity</t>
+          <t>True or False if proposal includes alterations to a listed building</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Listed building alterations</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes being made to a listed building as part of development works</t>
-        </is>
-      </c>
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Proposal alter listed building</t>
+          <t>Proposal alteration types[]</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr"/>
@@ -2537,17 +2525,17 @@
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>True or False if proposal includes alterations to a listed building</t>
+          <t>Select from a list of listed building alteration types, select all that apply</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2556,25 +2544,29 @@
       <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Proposal alteration types[]</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr"/>
+          <t>Document reference[]</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Select from a list of listed building alteration types, select all that apply</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2588,14 +2580,14 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2610,28 +2602,32 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Listed building grade</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>The grade of any listed building affected by the proposed development.</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Document reference[]</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Listed building grade</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr"/>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>The grade of the listed building, selected from the listed-building-grade codelist or "don't know"</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
@@ -2641,19 +2637,11 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>Listed building grade</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>The grade of any listed building affected by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Listed building grade</t>
+          <t>Listed building</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2661,17 +2649,17 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>The grade of the listed building, selected from the listed-building-grade codelist or "don't know"</t>
+          <t>Listed building reference for cross-referencing with listed building records</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2668,7 @@
       <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Listed building</t>
+          <t>Provided by</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -2688,12 +2676,12 @@
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Listed building reference for cross-referencing with listed building records</t>
+          <t>Source of the listed building grade information</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
@@ -2703,19 +2691,31 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n"/>
-      <c r="B69" s="2" t="n"/>
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Provided by</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr"/>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>Building element type</t>
+        </is>
+      </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Source of the listed building grade information</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2725,21 +2725,13 @@
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
+      <c r="A70" s="2" t="n"/>
+      <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
           <t>Building elements[]</t>
@@ -2747,24 +2739,24 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2778,14 +2770,14 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -2809,19 +2801,19 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
@@ -2840,14 +2832,14 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
@@ -2866,19 +2858,15 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr"/>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -2888,7 +2876,7 @@
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2897,20 +2885,24 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
@@ -2929,14 +2921,14 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -2951,28 +2943,32 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="2" t="n"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr"/>
       <c r="E77" s="2" t="inlineStr"/>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
@@ -2982,37 +2978,37 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr"/>
-      <c r="E78" s="2" t="inlineStr"/>
+          <t>Owners of listed building[]</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3031,13 +3027,13 @@
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -3047,7 +3043,7 @@
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3066,13 +3062,13 @@
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -3101,13 +3097,13 @@
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
@@ -3136,13 +3132,13 @@
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
@@ -3152,7 +3148,7 @@
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3166,23 +3162,19 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
@@ -3196,24 +3188,20 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Owners of listed building[]</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr"/>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
@@ -3227,15 +3215,19 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -3245,7 +3237,7 @@
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3259,19 +3251,19 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr"/>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
@@ -3285,29 +3277,25 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr"/>
       <c r="E87" s="2" t="inlineStr"/>
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3304,7 @@
       <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr"/>
@@ -3324,12 +3312,12 @@
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
@@ -3343,7 +3331,7 @@
       <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr"/>
@@ -3351,7 +3339,7 @@
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -3370,7 +3358,7 @@
       <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr"/>
@@ -3378,12 +3366,12 @@
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
@@ -3393,11 +3381,19 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n"/>
-      <c r="B91" s="2" t="n"/>
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr"/>
@@ -3405,34 +3401,26 @@
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A92" s="2" t="n"/>
+      <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr"/>
@@ -3440,17 +3428,17 @@
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3447,7 @@
       <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr"/>
@@ -3467,7 +3455,7 @@
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -3486,7 +3474,7 @@
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr"/>
@@ -3494,7 +3482,7 @@
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -3513,7 +3501,7 @@
       <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr"/>
@@ -3521,7 +3509,7 @@
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -3536,11 +3524,19 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr"/>
@@ -3548,7 +3544,7 @@
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
@@ -3558,24 +3554,16 @@
       </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A97" s="2" t="n"/>
+      <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr"/>
@@ -3583,12 +3571,12 @@
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
@@ -3602,7 +3590,7 @@
       <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr"/>
@@ -3610,17 +3598,17 @@
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3617,7 @@
       <c r="B99" s="2" t="n"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr"/>
@@ -3637,17 +3625,17 @@
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3644,7 @@
       <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr"/>
@@ -3664,26 +3652,34 @@
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n"/>
-      <c r="B101" s="2" t="n"/>
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>Related applications</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>Details of any other development proposals made for the site</t>
+        </is>
+      </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Has related applications</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr"/>
@@ -3691,47 +3687,43 @@
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Are there any related applications, previous proposals or demolitions for the site</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="inlineStr">
-        <is>
-          <t>Related applications</t>
-        </is>
-      </c>
-      <c r="B102" s="2" t="inlineStr">
-        <is>
-          <t>Details of any other development proposals made for the site</t>
-        </is>
-      </c>
+      <c r="A102" s="2" t="n"/>
+      <c r="B102" s="2" t="n"/>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Has related applications</t>
-        </is>
-      </c>
-      <c r="D102" s="2" t="inlineStr"/>
+          <t>Related applications[]</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Are there any related applications, previous proposals or demolitions for the site</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
@@ -3750,14 +3742,14 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -3781,14 +3773,14 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
@@ -3798,33 +3790,41 @@
       </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n"/>
-      <c r="B105" s="2" t="n"/>
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Related applications[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
@@ -3834,16 +3834,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A106" s="2" t="n"/>
+      <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -3851,19 +3843,19 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
@@ -3882,14 +3874,14 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -3913,19 +3905,19 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
@@ -3944,14 +3936,14 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -3975,14 +3967,14 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -4006,14 +3998,14 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -4037,19 +4029,19 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
@@ -4068,14 +4060,14 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr"/>
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -4090,50 +4082,46 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n"/>
-      <c r="B114" s="2" t="n"/>
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr"/>
       <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A115" s="2" t="n"/>
+      <c r="B115" s="2" t="n"/>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr"/>
@@ -4141,12 +4129,12 @@
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I115" s="2" t="inlineStr">
@@ -4160,7 +4148,7 @@
       <c r="B116" s="2" t="n"/>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr"/>
@@ -4168,17 +4156,17 @@
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4187,15 +4175,19 @@
       <c r="B117" s="2" t="n"/>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -4205,7 +4197,7 @@
       </c>
       <c r="I117" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4219,14 +4211,14 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -4250,14 +4242,14 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -4266,37 +4258,6 @@
         </is>
       </c>
       <c r="I119" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n"/>
-      <c r="B120" s="2" t="n"/>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E120" s="2" t="inlineStr"/>
-      <c r="F120" s="2" t="inlineStr"/>
-      <c r="G120" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4304,46 +4265,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A43"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A70:A77"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="A106:A114"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B43"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A78:A91"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B106:B114"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B78:B91"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B105:B113"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A105:A113"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="A77:A90"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B77:B90"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/listed-building-consent-lbc.xlsx
+++ b/generated/spreadsheet/listed-building-consent-lbc.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,17 +964,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,22 +993,18 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1018,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1037,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1072,48 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1123,32 +1119,28 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1172,14 +1164,18 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1189,7 +1185,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1208,18 +1204,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1229,51 +1225,47 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1281,14 +1273,18 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1298,7 +1294,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1317,13 +1313,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1333,7 +1329,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1352,13 +1348,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1387,13 +1383,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1422,13 +1418,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1438,7 +1434,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1452,18 +1448,14 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1487,19 +1479,19 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1509,58 +1501,58 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1584,14 +1576,18 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1601,7 +1597,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1620,18 +1616,18 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -1641,51 +1637,47 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1693,14 +1685,18 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1710,7 +1706,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1729,13 +1725,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1745,7 +1741,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1764,13 +1760,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1799,13 +1795,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1834,13 +1830,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1850,32 +1846,32 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1885,24 +1881,24 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Community consultation</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>What community consultation activities have taken place as part of the application</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Have consulted</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -1910,12 +1906,12 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Whether community consultation has been carried out</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -1925,19 +1921,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Community consultation</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>What community consultation activities have taken place as part of the application</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Have consulted</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1945,26 +1933,34 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Whether community consultation has been carried out</t>
+          <t>Provide details of the community consultation</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n"/>
-      <c r="B44" s="2" t="n"/>
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1972,34 +1968,26 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Provide details of the community consultation</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -2007,17 +1995,17 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2014,7 @@
       <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2034,7 +2022,7 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -2049,11 +2037,19 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="2" t="n"/>
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2061,7 +2057,7 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -2071,24 +2067,16 @@
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2096,12 +2084,12 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2115,7 +2103,7 @@
       <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2123,12 +2111,12 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2138,11 +2126,19 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n"/>
-      <c r="B50" s="2" t="n"/>
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Demolition</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Details of any demolition that needs to take place as part of the development proposal.</t>
+        </is>
+      </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Is propsing demolition</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2150,12 +2146,12 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Does the proposal include partial or total demolition of a listed building?</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
@@ -2165,19 +2161,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>Demolition</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>Details of any demolition that needs to take place as part of the development proposal.</t>
-        </is>
-      </c>
+      <c r="A51" s="2" t="n"/>
+      <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Is propsing demolition</t>
+          <t>Is total demolition</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2185,7 +2173,7 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include partial or total demolition of a listed building?</t>
+          <t>Indicating whether the proposal involves total demolition of a listed building</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -2195,7 +2183,7 @@
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2192,7 @@
       <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Is total demolition</t>
+          <t>Demolition building in curtilage</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2212,7 +2200,7 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Indicating whether the proposal involves total demolition of a listed building</t>
+          <t>True or False indicating whether the proposal involves demolition of a building in the curtilage of a listed building</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
@@ -2231,7 +2219,7 @@
       <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Demolition building in curtilage</t>
+          <t>Demolition part</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2239,7 +2227,7 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the proposal involves demolition of a building in the curtilage of a listed building</t>
+          <t>True or False indicating whether the proposal involves partial demolition of a listed building</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -2258,7 +2246,7 @@
       <c r="B54" s="2" t="n"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Demolition part</t>
+          <t>Listed building volume</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -2266,12 +2254,12 @@
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the proposal involves partial demolition of a listed building</t>
+          <t>Volume of listed building in cubic metres</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2285,7 +2273,7 @@
       <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Listed building volume</t>
+          <t>Demolition volume</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
@@ -2293,7 +2281,7 @@
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Volume of listed building in cubic metres</t>
+          <t>Volume of part to be demolished in cubic metres</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2312,7 +2300,7 @@
       <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Demolition volume</t>
+          <t>Part built date</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
@@ -2320,12 +2308,12 @@
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Volume of part to be demolished in cubic metres</t>
+          <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
@@ -2339,7 +2327,7 @@
       <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Part built date</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
@@ -2347,17 +2335,17 @@
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
+          <t>Description of the building or part you are proposing to demolish</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2354,7 @@
       <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
@@ -2374,7 +2362,7 @@
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Description of the building or part you are proposing to demolish</t>
+          <t>Reason for demolition</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -2389,11 +2377,19 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n"/>
-      <c r="B59" s="2" t="n"/>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Immunity from listing</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
+        </is>
+      </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Certificate of immunity sought</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
@@ -2401,12 +2397,12 @@
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Reason for demolition</t>
+          <t>Has a certificate of immunity been sought</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
@@ -2416,19 +2412,11 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>Immunity from listing</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
-        </is>
-      </c>
+      <c r="A60" s="2" t="n"/>
+      <c r="B60" s="2" t="n"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Certificate of immunity sought</t>
+          <t>Application result</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
@@ -2436,26 +2424,34 @@
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Has a certificate of immunity been sought</t>
+          <t>Provide the result of the application for a certificate of immunity</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="2" t="n"/>
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Listed building alterations</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes being made to a listed building as part of development works</t>
+        </is>
+      </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Application result</t>
+          <t>Proposal alter listed building</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
@@ -2463,34 +2459,26 @@
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Provide the result of the application for a certificate of immunity</t>
+          <t>True or False if proposal includes alterations to a listed building</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Listed building alterations</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes being made to a listed building as part of development works</t>
-        </is>
-      </c>
+      <c r="A62" s="2" t="n"/>
+      <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Proposal alter listed building</t>
+          <t>Proposal alteration types[]</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
@@ -2498,17 +2486,17 @@
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>True or False if proposal includes alterations to a listed building</t>
+          <t>Select from a list of listed building alteration types, select all that apply</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2517,25 +2505,29 @@
       <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Proposal alteration types[]</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr"/>
+          <t>Document reference[]</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Select from a list of listed building alteration types, select all that apply</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2549,14 +2541,14 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2571,28 +2563,32 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Listed building grade</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>The grade of any listed building affected by the proposed development.</t>
+        </is>
+      </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Document reference[]</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Listed building grade</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>The grade of the listed building, selected from the listed-building-grade codelist or "don't know"</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
@@ -2602,19 +2598,11 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>Listed building grade</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>The grade of any listed building affected by the proposed development.</t>
-        </is>
-      </c>
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Listed building grade</t>
+          <t>Listed building</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -2622,17 +2610,17 @@
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>The grade of the listed building, selected from the listed-building-grade codelist or "don't know"</t>
+          <t>Listed building reference for cross-referencing with listed building records</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2629,7 @@
       <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Listed building</t>
+          <t>Provided by</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2649,12 +2637,12 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Listed building reference for cross-referencing with listed building records</t>
+          <t>Source of the listed building grade information</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
@@ -2664,19 +2652,31 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n"/>
-      <c r="B68" s="2" t="n"/>
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Provided by</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="inlineStr"/>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>Building element type</t>
+        </is>
+      </c>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Source of the listed building grade information</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2686,21 +2686,13 @@
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
+      <c r="A69" s="2" t="n"/>
+      <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
           <t>Building elements[]</t>
@@ -2708,24 +2700,24 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2739,14 +2731,14 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -2770,19 +2762,19 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
@@ -2801,14 +2793,14 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
@@ -2827,19 +2819,15 @@
       <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr"/>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
@@ -2849,7 +2837,7 @@
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2858,20 +2846,24 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
@@ -2890,14 +2882,14 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2912,28 +2904,32 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n"/>
-      <c r="B76" s="2" t="n"/>
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr"/>
       <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
@@ -2943,37 +2939,37 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A77" s="2" t="n"/>
+      <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr"/>
-      <c r="E77" s="2" t="inlineStr"/>
+          <t>Owners of listed building[]</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2992,13 +2988,13 @@
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
@@ -3008,7 +3004,7 @@
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3027,13 +3023,13 @@
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -3062,13 +3058,13 @@
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -3097,13 +3093,13 @@
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
@@ -3113,7 +3109,7 @@
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3127,23 +3123,19 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
@@ -3157,24 +3149,20 @@
       <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Owners of listed building[]</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr"/>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
@@ -3188,15 +3176,19 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -3206,7 +3198,7 @@
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3220,19 +3212,19 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
@@ -3246,29 +3238,25 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr"/>
       <c r="E86" s="2" t="inlineStr"/>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3265,7 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr"/>
@@ -3285,12 +3273,12 @@
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
@@ -3304,7 +3292,7 @@
       <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr"/>
@@ -3312,7 +3300,7 @@
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -3331,7 +3319,7 @@
       <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr"/>
@@ -3339,12 +3327,12 @@
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
@@ -3354,11 +3342,19 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n"/>
-      <c r="B90" s="2" t="n"/>
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr"/>
@@ -3366,34 +3362,26 @@
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A91" s="2" t="n"/>
+      <c r="B91" s="2" t="n"/>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr"/>
@@ -3401,17 +3389,17 @@
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3420,7 +3408,7 @@
       <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr"/>
@@ -3428,7 +3416,7 @@
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -3447,7 +3435,7 @@
       <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr"/>
@@ -3455,7 +3443,7 @@
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -3474,7 +3462,7 @@
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr"/>
@@ -3482,7 +3470,7 @@
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -3497,11 +3485,19 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n"/>
-      <c r="B95" s="2" t="n"/>
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr"/>
@@ -3509,7 +3505,7 @@
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -3519,24 +3515,16 @@
       </c>
       <c r="I95" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="2" t="n"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr"/>
@@ -3544,12 +3532,12 @@
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
@@ -3563,7 +3551,7 @@
       <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr"/>
@@ -3571,17 +3559,17 @@
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3590,7 +3578,7 @@
       <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr"/>
@@ -3598,17 +3586,17 @@
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3605,7 @@
       <c r="B99" s="2" t="n"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr"/>
@@ -3625,26 +3613,34 @@
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n"/>
-      <c r="B100" s="2" t="n"/>
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Related applications</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>Details of any other development proposals made for the site</t>
+        </is>
+      </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Has related applications</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr"/>
@@ -3652,47 +3648,43 @@
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Are there any related applications, previous proposals or demolitions for the site</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="inlineStr">
-        <is>
-          <t>Related applications</t>
-        </is>
-      </c>
-      <c r="B101" s="2" t="inlineStr">
-        <is>
-          <t>Details of any other development proposals made for the site</t>
-        </is>
-      </c>
+      <c r="A101" s="2" t="n"/>
+      <c r="B101" s="2" t="n"/>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Has related applications</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="inlineStr"/>
+          <t>Related applications[]</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Are there any related applications, previous proposals or demolitions for the site</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I101" s="2" t="inlineStr">
@@ -3711,14 +3703,14 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -3742,14 +3734,14 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -3759,33 +3751,41 @@
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n"/>
-      <c r="B104" s="2" t="n"/>
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Related applications[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -3795,16 +3795,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A105" s="2" t="n"/>
+      <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -3812,19 +3804,19 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
@@ -3843,14 +3835,14 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -3874,19 +3866,19 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
@@ -3905,14 +3897,14 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
@@ -3936,14 +3928,14 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -3967,14 +3959,14 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -3998,19 +3990,19 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I111" s="2" t="inlineStr">
@@ -4029,14 +4021,14 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -4051,50 +4043,46 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n"/>
-      <c r="B113" s="2" t="n"/>
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr"/>
       <c r="E113" s="2" t="inlineStr"/>
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A114" s="2" t="n"/>
+      <c r="B114" s="2" t="n"/>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr"/>
@@ -4102,12 +4090,12 @@
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
@@ -4121,7 +4109,7 @@
       <c r="B115" s="2" t="n"/>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr"/>
@@ -4129,17 +4117,17 @@
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4148,15 +4136,19 @@
       <c r="B116" s="2" t="n"/>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -4166,7 +4158,7 @@
       </c>
       <c r="I116" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4180,14 +4172,14 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -4211,14 +4203,14 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -4227,37 +4219,6 @@
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n"/>
-      <c r="B119" s="2" t="n"/>
-      <c r="C119" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="inlineStr"/>
-      <c r="F119" s="2" t="inlineStr"/>
-      <c r="G119" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4265,46 +4226,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B105:B113"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A105:A113"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="A77:A90"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B77:B90"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B69:B76"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A42"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B113:B118"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B41"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B76:B89"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A104:A112"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A41"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A76:A89"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/listed-building-consent-lbc.xlsx
+++ b/generated/spreadsheet/listed-building-consent-lbc.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,27 +842,23 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -886,12 +882,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -925,12 +921,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +936,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -964,17 +960,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,18 +989,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1068,48 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1119,28 +1119,32 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1164,18 +1168,14 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1204,18 +1204,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1225,47 +1225,51 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1273,18 +1277,14 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1313,13 +1313,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1348,13 +1348,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1383,13 +1383,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1418,13 +1418,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1448,14 +1448,18 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1479,19 +1483,19 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1501,58 +1505,58 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1576,18 +1580,14 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1616,18 +1616,18 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -1637,47 +1637,51 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1685,18 +1689,14 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1725,13 +1725,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1760,13 +1760,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1795,13 +1795,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1830,13 +1830,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1846,32 +1846,32 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1881,24 +1881,24 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Community consultation</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>What community consultation activities have taken place as part of the application</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Have consulted</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -1906,12 +1906,12 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>Whether community consultation has been carried out</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -1921,11 +1921,19 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Community consultation</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>What community consultation activities have taken place as part of the application</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Have consulted</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1933,34 +1941,26 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Provide details of the community consultation</t>
+          <t>Whether community consultation has been carried out</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1968,26 +1968,34 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Provide details of the community consultation</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -1995,17 +2003,17 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2022,7 @@
       <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2022,7 +2030,7 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -2037,19 +2045,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2057,7 +2057,7 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -2067,16 +2067,24 @@
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2084,12 +2092,12 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2103,7 +2111,7 @@
       <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2111,12 +2119,12 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2126,19 +2134,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Demolition</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Details of any demolition that needs to take place as part of the development proposal.</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Is propsing demolition</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2146,12 +2146,12 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include partial or total demolition of a listed building?</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
@@ -2161,11 +2161,19 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Demolition</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Details of any demolition that needs to take place as part of the development proposal.</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Is total demolition</t>
+          <t>Is propsing demolition</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2173,7 +2181,7 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Indicating whether the proposal involves total demolition of a listed building</t>
+          <t>Does the proposal include partial or total demolition of a listed building?</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -2183,7 +2191,7 @@
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2200,7 @@
       <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Demolition building in curtilage</t>
+          <t>Is total demolition</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2200,7 +2208,7 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the proposal involves demolition of a building in the curtilage of a listed building</t>
+          <t>Indicating whether the proposal involves total demolition of a listed building</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
@@ -2219,7 +2227,7 @@
       <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Demolition part</t>
+          <t>Demolition building in curtilage</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2227,7 +2235,7 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the proposal involves partial demolition of a listed building</t>
+          <t>True or False indicating whether the proposal involves demolition of a building in the curtilage of a listed building</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -2246,7 +2254,7 @@
       <c r="B54" s="2" t="n"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Listed building volume</t>
+          <t>Demolition part</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -2254,12 +2262,12 @@
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Volume of listed building in cubic metres</t>
+          <t>True or False indicating whether the proposal involves partial demolition of a listed building</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2273,7 +2281,7 @@
       <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Demolition volume</t>
+          <t>Listed building volume</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
@@ -2281,7 +2289,7 @@
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Volume of part to be demolished in cubic metres</t>
+          <t>Volume of listed building in cubic metres</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2300,7 +2308,7 @@
       <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Part built date</t>
+          <t>Demolition volume</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
@@ -2308,12 +2316,12 @@
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
+          <t>Volume of part to be demolished in cubic metres</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
@@ -2327,7 +2335,7 @@
       <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Part built date</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
@@ -2335,17 +2343,17 @@
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Description of the building or part you are proposing to demolish</t>
+          <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2362,7 @@
       <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
@@ -2362,7 +2370,7 @@
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Reason for demolition</t>
+          <t>Description of the building or part you are proposing to demolish</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -2377,19 +2385,11 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>Immunity from listing</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
-        </is>
-      </c>
+      <c r="A59" s="2" t="n"/>
+      <c r="B59" s="2" t="n"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Certificate of immunity sought</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
@@ -2397,12 +2397,12 @@
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Has a certificate of immunity been sought</t>
+          <t>Reason for demolition</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
@@ -2412,11 +2412,19 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Immunity from listing</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Whether the applicant has obtained a Certificate of Immunity (COI) meaning the building in question cannot be listed</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Application result</t>
+          <t>Certificate of immunity sought</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
@@ -2424,34 +2432,26 @@
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Provide the result of the application for a certificate of immunity</t>
+          <t>Has a certificate of immunity been sought</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Listed building alterations</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>Details of any changes being made to a listed building as part of development works</t>
-        </is>
-      </c>
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Proposal alter listed building</t>
+          <t>Application result</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
@@ -2459,26 +2459,34 @@
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>True or False if proposal includes alterations to a listed building</t>
+          <t>Provide the result of the application for a certificate of immunity</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Listed building alterations</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Details of any changes being made to a listed building as part of development works</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Proposal alteration types[]</t>
+          <t>Proposal alter listed building</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
@@ -2486,17 +2494,17 @@
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Select from a list of listed building alteration types, select all that apply</t>
+          <t>True or False if proposal includes alterations to a listed building</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2505,29 +2513,25 @@
       <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Document reference[]</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Proposal alteration types[]</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Select from a list of listed building alteration types, select all that apply</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2541,14 +2545,14 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2873,28 +2877,32 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n"/>
-      <c r="B75" s="2" t="n"/>
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr"/>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
@@ -2904,37 +2912,37 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A76" s="2" t="n"/>
+      <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="inlineStr"/>
-      <c r="E76" s="2" t="inlineStr"/>
+          <t>Owners of listed building[]</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2953,13 +2961,13 @@
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -2969,7 +2977,7 @@
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2988,13 +2996,13 @@
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
@@ -3023,13 +3031,13 @@
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -3058,13 +3066,13 @@
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -3074,7 +3082,7 @@
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3088,23 +3096,19 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
@@ -3118,24 +3122,20 @@
       <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Owners of listed building[]</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr"/>
       <c r="E82" s="2" t="inlineStr"/>
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
@@ -3149,15 +3149,19 @@
       <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E83" s="2" t="inlineStr"/>
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -3167,7 +3171,7 @@
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3181,19 +3185,19 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
@@ -3207,29 +3211,25 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr"/>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr"/>
@@ -3246,12 +3246,12 @@
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
@@ -3265,7 +3265,7 @@
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr"/>
@@ -3273,7 +3273,7 @@
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -3292,7 +3292,7 @@
       <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr"/>
@@ -3300,12 +3300,12 @@
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
@@ -3315,11 +3315,19 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n"/>
-      <c r="B89" s="2" t="n"/>
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr"/>
@@ -3327,34 +3335,26 @@
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr"/>
@@ -3362,17 +3362,17 @@
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       <c r="B91" s="2" t="n"/>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr"/>
@@ -3389,7 +3389,7 @@
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -3408,7 +3408,7 @@
       <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr"/>
@@ -3416,7 +3416,7 @@
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -3435,7 +3435,7 @@
       <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr"/>
@@ -3443,7 +3443,7 @@
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -3458,11 +3458,19 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n"/>
-      <c r="B94" s="2" t="n"/>
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr"/>
@@ -3470,7 +3478,7 @@
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -3480,24 +3488,16 @@
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A95" s="2" t="n"/>
+      <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr"/>
@@ -3505,12 +3505,12 @@
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
@@ -3524,7 +3524,7 @@
       <c r="B96" s="2" t="n"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr"/>
@@ -3532,17 +3532,17 @@
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr"/>
@@ -3559,17 +3559,17 @@
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr"/>
@@ -3586,26 +3586,34 @@
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n"/>
-      <c r="B99" s="2" t="n"/>
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Related applications</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Details of any other development proposals made for the site</t>
+        </is>
+      </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Has related applications</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr"/>
@@ -3613,47 +3621,43 @@
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Are there any related applications, previous proposals or demolitions for the site</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
-        <is>
-          <t>Related applications</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>Details of any other development proposals made for the site</t>
-        </is>
-      </c>
+      <c r="A100" s="2" t="n"/>
+      <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Has related applications</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr"/>
+          <t>Related applications[]</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Are there any related applications, previous proposals or demolitions for the site</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
@@ -3672,14 +3676,14 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -3703,14 +3707,14 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -3720,33 +3724,41 @@
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n"/>
-      <c r="B103" s="2" t="n"/>
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Related applications[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
@@ -3756,16 +3768,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A104" s="2" t="n"/>
+      <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -3773,19 +3777,19 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -3804,14 +3808,14 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -3835,19 +3839,19 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
@@ -3866,14 +3870,14 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -3897,14 +3901,14 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
@@ -3928,14 +3932,14 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -3959,19 +3963,19 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
@@ -3990,14 +3994,14 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -4012,50 +4016,46 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n"/>
-      <c r="B112" s="2" t="n"/>
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr"/>
       <c r="E112" s="2" t="inlineStr"/>
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A113" s="2" t="n"/>
+      <c r="B113" s="2" t="n"/>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr"/>
@@ -4063,12 +4063,12 @@
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
@@ -4082,7 +4082,7 @@
       <c r="B114" s="2" t="n"/>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr"/>
@@ -4090,17 +4090,17 @@
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4109,15 +4109,19 @@
       <c r="B115" s="2" t="n"/>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -4127,7 +4131,7 @@
       </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4141,14 +4145,14 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -4172,14 +4176,14 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -4188,37 +4192,6 @@
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n"/>
-      <c r="B118" s="2" t="n"/>
-      <c r="C118" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E118" s="2" t="inlineStr"/>
-      <c r="F118" s="2" t="inlineStr"/>
-      <c r="G118" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4226,46 +4199,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B113:B118"/>
-    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A103:A111"/>
     <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B41"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B76:B89"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A104:A112"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B103:B111"/>
+    <mergeCell ref="B75:B88"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B99:B102"/>
     <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="A113:A118"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A76:A89"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A75:A88"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A89:A93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/listed-building-consent-lbc.xlsx
+++ b/generated/spreadsheet/listed-building-consent-lbc.xlsx
@@ -708,7 +708,7 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">

--- a/generated/spreadsheet/listed-building-consent-lbc.xlsx
+++ b/generated/spreadsheet/listed-building-consent-lbc.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>The approximate date the part to be removed was built, in YYYY-MM-DD format.</t>
+          <t>The approximate date the part to be removed was built, in YYYY-MM format.</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">

--- a/generated/spreadsheet/listed-building-consent-lbc.xlsx
+++ b/generated/spreadsheet/listed-building-consent-lbc.xlsx
@@ -3292,7 +3292,7 @@
       <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr"/>
@@ -3300,12 +3300,12 @@
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
